--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCA2670-5DDB-45E4-9432-07B2936DCB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69320645-83FC-453E-AA45-17958F0FF66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="2475" windowWidth="30060" windowHeight="18630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22515" yWindow="1845" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -545,8 +545,9 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -563,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -580,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -614,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -631,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -648,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -665,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -682,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -699,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -716,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -733,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -750,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -767,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -784,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -897,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CB3E9-940E-4B3A-AEBA-B9FE06DA2AEC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69320645-83FC-453E-AA45-17958F0FF66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF295E-720D-49CB-A51A-9457C12049D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="1845" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22410" yWindow="2040" windowWidth="23025" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
@@ -864,7 +864,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>30</v>
@@ -881,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
